--- a/image/eventdefinition.xlsx
+++ b/image/eventdefinition.xlsx
@@ -997,45 +997,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.80078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="88.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="88.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/eventdefinition.xlsx
+++ b/image/eventdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="270">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -384,10 +384,6 @@
   </si>
   <si>
     <t>EventDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the event definition</t>
@@ -997,45 +993,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.34375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.09375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.7734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="88.671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="88.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2405,16 +2401,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2479,10 +2475,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2493,7 +2489,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2516,19 +2512,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2577,7 +2573,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2586,7 +2582,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2606,7 +2602,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2629,16 +2625,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2688,7 +2684,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2703,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2717,7 +2713,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2740,13 +2736,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2797,7 +2793,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2826,7 +2822,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2852,13 +2848,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2884,14 +2880,14 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2908,7 +2904,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>48</v>
@@ -2923,10 +2919,10 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -2937,7 +2933,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2960,19 +2956,19 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3021,7 +3017,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3036,10 +3032,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3050,7 +3046,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3073,13 +3069,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3087,35 +3083,35 @@
         <v>40</v>
       </c>
       <c r="P19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W19" t="s" s="2">
+      <c r="X19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3147,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3161,11 +3157,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3184,16 +3180,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3243,7 +3239,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3258,10 +3254,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3272,7 +3268,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3295,19 +3291,19 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3356,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3371,10 +3367,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3385,7 +3381,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3408,16 +3404,16 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3467,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3482,7 +3478,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3496,7 +3492,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3519,16 +3515,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3578,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3593,7 +3589,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3607,7 +3603,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3630,19 +3626,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3691,7 +3687,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3706,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -3720,7 +3716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3743,16 +3739,16 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3778,14 +3774,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3802,7 +3798,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3817,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -3831,7 +3827,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3854,16 +3850,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3913,7 +3909,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3928,10 +3924,10 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>117</v>
@@ -3942,7 +3938,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3965,13 +3961,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4022,7 +4018,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4051,11 +4047,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4074,17 +4070,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4133,7 +4129,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4148,7 +4144,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4162,7 +4158,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4185,16 +4181,16 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4244,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4259,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4296,19 +4292,19 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4357,7 +4353,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4372,7 +4368,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -4386,7 +4382,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4409,19 +4405,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4470,7 +4466,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4485,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -4499,7 +4495,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4522,17 +4518,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4557,14 +4553,14 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4610,7 +4606,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4633,13 +4629,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4690,7 +4686,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4714,12 +4710,12 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4742,13 +4738,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4799,7 +4795,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4828,7 +4824,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4851,13 +4847,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4908,7 +4904,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4932,12 +4928,12 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4960,13 +4956,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5017,7 +5013,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5041,12 +5037,12 @@
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5069,19 +5065,19 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5130,7 +5126,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5159,7 +5155,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5182,13 +5178,13 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5239,7 +5235,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>48</v>
